--- a/tests/template/cortex_xlsx_data/complex.in-/input.xlsx
+++ b/tests/template/cortex_xlsx_data/complex.in-/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB601C-8F1B-4046-91C1-80E058058CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F312DF8-0084-0948-AE35-67C3582F571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Neutron Source</t>
   </si>
   <si>
-    <t>D-T fusion</t>
-  </si>
-  <si>
     <t>Neutron Wall Loading</t>
   </si>
   <si>
@@ -198,13 +195,25 @@
   </si>
   <si>
     <t>(options: ITER, DEMO, number of MW/m2</t>
+  </si>
+  <si>
+    <t>D-T</t>
+  </si>
+  <si>
+    <t>(options: plasma-facing, structural</t>
+  </si>
+  <si>
+    <t>options: true, false, yes, no</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +315,12 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -451,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +523,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +747,7 @@
   <dimension ref="A1:O1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -757,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -773,15 +789,15 @@
         <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +808,7 @@
     </row>
     <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -811,7 +827,7 @@
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -821,22 +837,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -2110,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,13 +2149,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,16 +2164,16 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2166,13 +2182,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14">
         <v>0.25</v>
       </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3180,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3194,55 +3213,70 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
+      <c r="C4" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
+      <c r="C5" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/tests/template/cortex_xlsx_data/complex.in-/input.xlsx
+++ b/tests/template/cortex_xlsx_data/complex.in-/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F312DF8-0084-0948-AE35-67C3582F571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661BB816-99D6-B745-9191-2D37E4A8D84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -155,15 +155,6 @@
     <t>Material Name</t>
   </si>
   <si>
-    <t>Density Unit</t>
-  </si>
-  <si>
-    <t>g/cm3</t>
-  </si>
-  <si>
-    <t>Enter the name of your material for storage in the database.</t>
-  </si>
-  <si>
     <t>Enter the density of your material during in-service conditions.</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>Select the neutron source spectrum</t>
   </si>
   <si>
-    <t>(options: D-T, D-D)</t>
-  </si>
-  <si>
     <t>Select the average NWL from built-in defaults or enter your own value</t>
   </si>
   <si>
@@ -194,26 +182,38 @@
     <t>Select the geometry scenarios you would like to simulate for your material.</t>
   </si>
   <si>
-    <t>(options: ITER, DEMO, number of MW/m2</t>
-  </si>
-  <si>
     <t>D-T</t>
   </si>
   <si>
-    <t>(options: plasma-facing, structural</t>
-  </si>
-  <si>
     <t>options: true, false, yes, no</t>
   </si>
   <si>
-    <t>percentage</t>
+    <t>options: D-T, D-D</t>
+  </si>
+  <si>
+    <t>percentage between 1 and 100</t>
+  </si>
+  <si>
+    <t>options: plasma-facing, structural</t>
+  </si>
+  <si>
+    <t>Enter the name of your material</t>
+  </si>
+  <si>
+    <t>string between 1 and 100 characters</t>
+  </si>
+  <si>
+    <t>options: ITER, DEMO</t>
+  </si>
+  <si>
+    <t>number of f g/cm3 between 1 and 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,13 +288,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -466,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,9 +471,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -491,39 +481,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,17 +734,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1003"/>
+  <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -766,380 +756,379 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>44</v>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="19">
         <v>19</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>45</v>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>43</v>
       </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="B10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="7"/>
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="L13" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="L16" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D16" s="32">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="L18" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="31">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="L19" s="10"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="L20" s="10"/>
-      <c r="O20" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="31">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="31">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8">
+        <v>20</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31">
         <v>0</v>
       </c>
-      <c r="D25" s="19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="D25" s="32">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31">
         <v>0</v>
       </c>
-      <c r="D26" s="19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+        <v>22</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31">
         <v>0</v>
       </c>
-      <c r="D27" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8">
+        <v>23</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31">
         <v>0</v>
       </c>
-      <c r="D28" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="D28" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31">
         <v>0</v>
       </c>
-      <c r="D29" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="32">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8">
+        <v>25</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31">
         <v>0</v>
       </c>
-      <c r="D30" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="D30" s="32">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
+        <v>26</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31">
         <v>0</v>
       </c>
-      <c r="D31" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="D31" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2110,12 +2099,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2126,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2148,56 +2136,56 @@
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>56</v>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3200,7 +3188,7 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3213,12 +3201,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>54</v>
+      <c r="A2" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -3241,8 +3229,8 @@
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>58</v>
+      <c r="C5" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,7 +3241,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,20 +3251,20 @@
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>58</v>
+      <c r="C7" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
